--- a/sample_sales_data.xlsx
+++ b/sample_sales_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projs\peel_potato\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projs\Peel Potato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F817C6A-B90C-4130-847F-6BB360127516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C20A4BB-445C-46CC-A861-86A83EDF9978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Data" sheetId="1" r:id="rId1"/>
@@ -180,20 +180,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -236,13 +244,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -255,6 +263,1105 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr altLang="zh-CN" sz="1200">
+                <a:latin typeface="Microsoft YaHei UI"/>
+                <a:ea typeface="Microsoft YaHei UI"/>
+                <a:cs typeface="Microsoft YaHei UI"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Sales by Category</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.6923076923076927E-3"/>
+          <c:y val="1.2500000000000001E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total Sales</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Category Summary'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Food &amp; Beverage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Home &amp; Garden</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sports</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Category Summary'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>131701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>852711</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19230</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84397</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AA25-4D38-8C26-97E282AA4F94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Profit</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Category Summary'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Clothing</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Electronics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Food &amp; Beverage</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Home &amp; Garden</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sports</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Category Summary'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>52680.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>341084.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7692</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>33758.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-AA25-4D38-8C26-97E282AA4F94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1039120527"/>
+        <c:axId val="1039129167"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1039120527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Microsoft YaHei UI"/>
+                <a:ea typeface="Microsoft YaHei UI"/>
+                <a:cs typeface="Microsoft YaHei UI"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1039129167"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1039129167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Microsoft YaHei UI"/>
+                <a:ea typeface="Microsoft YaHei UI"/>
+                <a:cs typeface="Microsoft YaHei UI"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1039120527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200">
+              <a:latin typeface="Microsoft YaHei UI"/>
+              <a:ea typeface="Microsoft YaHei UI"/>
+              <a:cs typeface="Microsoft YaHei UI"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr altLang="zh-CN" sz="1200">
+                <a:latin typeface="Microsoft YaHei UI"/>
+                <a:ea typeface="Microsoft YaHei UI"/>
+                <a:cs typeface="Microsoft YaHei UI"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Sales by Region</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.6923076923076927E-3"/>
+          <c:y val="1.2500000000000001E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total Sales</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Region Summary'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Central</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>East</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>North</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>South</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Region Summary'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>285436</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210241</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>167992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>239757</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-249B-40E6-B33C-90A76D3C1891}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Profit</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Region Summary'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Central</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>East</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>North</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>South</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Region Summary'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>114174.39999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96845.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84096.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67196.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95902.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-249B-40E6-B33C-90A76D3C1891}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1039131567"/>
+        <c:axId val="1039133967"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1039131567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Microsoft YaHei UI"/>
+                <a:ea typeface="Microsoft YaHei UI"/>
+                <a:cs typeface="Microsoft YaHei UI"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1039133967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1039133967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Microsoft YaHei UI"/>
+                <a:ea typeface="Microsoft YaHei UI"/>
+                <a:cs typeface="Microsoft YaHei UI"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1039131567"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200">
+              <a:latin typeface="Microsoft YaHei UI"/>
+              <a:ea typeface="Microsoft YaHei UI"/>
+              <a:cs typeface="Microsoft YaHei UI"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr altLang="zh-CN" sz="1200">
+                <a:latin typeface="Microsoft YaHei UI"/>
+                <a:ea typeface="Microsoft YaHei UI"/>
+                <a:cs typeface="Microsoft YaHei UI"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Total Sales by Region</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.6923076923076927E-3"/>
+          <c:y val="1.2500000000000001E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total Sales</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Region Summary'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Central</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>East</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>North</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>South</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Region Summary'!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>285436</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242113</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>210241</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>167992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>239757</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-E9C3-4A80-A3E8-FF058A30A09F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Profit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Region Summary'!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Central</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>East</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>North</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>South</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>West</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Region Summary'!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>114174.39999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96845.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84096.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67196.800000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>95902.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E9C3-4A80-A3E8-FF058A30A09F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1098145424"/>
+        <c:axId val="1098142544"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="1098145424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Microsoft YaHei UI"/>
+                <a:ea typeface="Microsoft YaHei UI"/>
+                <a:cs typeface="Microsoft YaHei UI"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1098142544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1098142544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Microsoft YaHei UI"/>
+                <a:ea typeface="Microsoft YaHei UI"/>
+                <a:cs typeface="Microsoft YaHei UI"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1098145424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200">
+              <a:latin typeface="Microsoft YaHei UI"/>
+              <a:ea typeface="Microsoft YaHei UI"/>
+              <a:cs typeface="Microsoft YaHei UI"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF069143-F727-20CC-1A37-3DF7B31430DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5B88FDD-715A-A194-78A7-D8B16B93A37E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7847A6FD-0560-554A-8180-DD3FFC331139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -544,24 +1651,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="A1:I501"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +1689,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45658</v>
       </c>
@@ -619,7 +1718,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45659</v>
       </c>
@@ -648,7 +1747,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45659</v>
       </c>
@@ -677,7 +1776,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45659</v>
       </c>
@@ -706,7 +1805,7 @@
         <v>47.599999999999987</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45661</v>
       </c>
@@ -735,7 +1834,7 @@
         <v>9384</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45661</v>
       </c>
@@ -764,7 +1863,7 @@
         <v>169.2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45662</v>
       </c>
@@ -793,7 +1892,7 @@
         <v>4798.8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45662</v>
       </c>
@@ -822,7 +1921,7 @@
         <v>183.6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45662</v>
       </c>
@@ -851,7 +1950,7 @@
         <v>1990.4</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45663</v>
       </c>
@@ -880,7 +1979,7 @@
         <v>470.8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45663</v>
       </c>
@@ -909,7 +2008,7 @@
         <v>478.80000000000013</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45665</v>
       </c>
@@ -938,7 +2037,7 @@
         <v>691.2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45665</v>
       </c>
@@ -967,7 +2066,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45665</v>
       </c>
@@ -996,7 +2095,7 @@
         <v>1148.4000000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45666</v>
       </c>
@@ -1025,7 +2124,7 @@
         <v>419.2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45667</v>
       </c>
@@ -1054,7 +2153,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45667</v>
       </c>
@@ -1083,7 +2182,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45667</v>
       </c>
@@ -1112,7 +2211,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45668</v>
       </c>
@@ -1141,7 +2240,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45668</v>
       </c>
@@ -1170,7 +2269,7 @@
         <v>902.40000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45669</v>
       </c>
@@ -1199,7 +2298,7 @@
         <v>790.40000000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45669</v>
       </c>
@@ -1228,7 +2327,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45669</v>
       </c>
@@ -1257,7 +2356,7 @@
         <v>6326.4000000000005</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45669</v>
       </c>
@@ -1286,7 +2385,7 @@
         <v>938.40000000000009</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45670</v>
       </c>
@@ -1315,7 +2414,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45670</v>
       </c>
@@ -1344,7 +2443,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45671</v>
       </c>
@@ -1373,7 +2472,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45671</v>
       </c>
@@ -1402,7 +2501,7 @@
         <v>3163.2000000000012</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45671</v>
       </c>
@@ -1431,7 +2530,7 @@
         <v>126.4</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45671</v>
       </c>
@@ -1460,7 +2559,7 @@
         <v>1673.6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45672</v>
       </c>
@@ -1489,7 +2588,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45672</v>
       </c>
@@ -1518,7 +2617,7 @@
         <v>4355.2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45673</v>
       </c>
@@ -1547,7 +2646,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45673</v>
       </c>
@@ -1576,7 +2675,7 @@
         <v>1494.4</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45673</v>
       </c>
@@ -1605,7 +2704,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45674</v>
       </c>
@@ -1634,7 +2733,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45674</v>
       </c>
@@ -1663,7 +2762,7 @@
         <v>716.8</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45674</v>
       </c>
@@ -1692,7 +2791,7 @@
         <v>248.00000000000011</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45674</v>
       </c>
@@ -1721,7 +2820,7 @@
         <v>3810.8</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45675</v>
       </c>
@@ -1750,7 +2849,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45676</v>
       </c>
@@ -1779,7 +2878,7 @@
         <v>576.00000000000011</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45676</v>
       </c>
@@ -1808,7 +2907,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45677</v>
       </c>
@@ -1837,7 +2936,7 @@
         <v>132.80000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45678</v>
       </c>
@@ -1866,7 +2965,7 @@
         <v>748.8</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45679</v>
       </c>
@@ -1895,7 +2994,7 @@
         <v>633.6</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45679</v>
       </c>
@@ -1924,7 +3023,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45679</v>
       </c>
@@ -1953,7 +3052,7 @@
         <v>52.800000000000011</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45680</v>
       </c>
@@ -1982,7 +3081,7 @@
         <v>162.4</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45680</v>
       </c>
@@ -2011,7 +3110,7 @@
         <v>2640</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45680</v>
       </c>
@@ -2040,7 +3139,7 @@
         <v>91.199999999999989</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45681</v>
       </c>
@@ -2069,7 +3168,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45681</v>
       </c>
@@ -2098,7 +3197,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45681</v>
       </c>
@@ -2127,7 +3226,7 @@
         <v>8.4000000000000021</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45681</v>
       </c>
@@ -2156,7 +3255,7 @@
         <v>196.8</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45682</v>
       </c>
@@ -2185,7 +3284,7 @@
         <v>187.2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45683</v>
       </c>
@@ -2214,7 +3313,7 @@
         <v>83.2</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>45683</v>
       </c>
@@ -2243,7 +3342,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45684</v>
       </c>
@@ -2272,7 +3371,7 @@
         <v>45.600000000000009</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45684</v>
       </c>
@@ -2301,7 +3400,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45685</v>
       </c>
@@ -2330,7 +3429,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45685</v>
       </c>
@@ -2359,7 +3458,7 @@
         <v>1019.2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>45685</v>
       </c>
@@ -2388,7 +3487,7 @@
         <v>67.2</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>45686</v>
       </c>
@@ -2417,7 +3516,7 @@
         <v>128.80000000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45687</v>
       </c>
@@ -2446,7 +3545,7 @@
         <v>4950</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45688</v>
       </c>
@@ -2475,7 +3574,7 @@
         <v>134.4</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45689</v>
       </c>
@@ -2504,7 +3603,7 @@
         <v>57.2</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45689</v>
       </c>
@@ -2533,7 +3632,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45690</v>
       </c>
@@ -2562,7 +3661,7 @@
         <v>1109.5999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45690</v>
       </c>
@@ -2591,7 +3690,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>45690</v>
       </c>
@@ -2620,7 +3719,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>45690</v>
       </c>
@@ -2649,7 +3748,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>45691</v>
       </c>
@@ -2678,7 +3777,7 @@
         <v>190.4</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45691</v>
       </c>
@@ -2707,7 +3806,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45691</v>
       </c>
@@ -2736,7 +3835,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45692</v>
       </c>
@@ -2765,7 +3864,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45692</v>
       </c>
@@ -2794,7 +3893,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45692</v>
       </c>
@@ -2823,7 +3922,7 @@
         <v>607.20000000000005</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>45693</v>
       </c>
@@ -2852,7 +3951,7 @@
         <v>523.6</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45693</v>
       </c>
@@ -2881,7 +3980,7 @@
         <v>382.80000000000013</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45693</v>
       </c>
@@ -2910,7 +4009,7 @@
         <v>220.8</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>45693</v>
       </c>
@@ -2939,7 +4038,7 @@
         <v>218.4</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45694</v>
       </c>
@@ -2968,7 +4067,7 @@
         <v>2889.6</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45694</v>
       </c>
@@ -2997,7 +4096,7 @@
         <v>4446</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45694</v>
       </c>
@@ -3026,7 +4125,7 @@
         <v>76.800000000000011</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45695</v>
       </c>
@@ -3055,7 +4154,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45695</v>
       </c>
@@ -3084,7 +4183,7 @@
         <v>2581.6</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>45695</v>
       </c>
@@ -3113,7 +4212,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>45695</v>
       </c>
@@ -3142,7 +4241,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>45695</v>
       </c>
@@ -3171,7 +4270,7 @@
         <v>54.400000000000013</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>45695</v>
       </c>
@@ -3200,7 +4299,7 @@
         <v>556.00000000000011</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>45697</v>
       </c>
@@ -3229,7 +4328,7 @@
         <v>451.2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>45698</v>
       </c>
@@ -3258,7 +4357,7 @@
         <v>6804</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>45698</v>
       </c>
@@ -3287,7 +4386,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>45698</v>
       </c>
@@ -3316,7 +4415,7 @@
         <v>158.4</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>45698</v>
       </c>
@@ -3345,7 +4444,7 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>45700</v>
       </c>
@@ -3374,7 +4473,7 @@
         <v>6770.4</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>45700</v>
       </c>
@@ -3403,7 +4502,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>45700</v>
       </c>
@@ -3432,7 +4531,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>45701</v>
       </c>
@@ -3461,7 +4560,7 @@
         <v>228.8</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>45701</v>
       </c>
@@ -3490,7 +4589,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>45701</v>
       </c>
@@ -3519,7 +4618,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>45702</v>
       </c>
@@ -3548,7 +4647,7 @@
         <v>843.2</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>45702</v>
       </c>
@@ -3577,7 +4676,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>45703</v>
       </c>
@@ -3606,7 +4705,7 @@
         <v>44.8</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>45703</v>
       </c>
@@ -3635,7 +4734,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>45703</v>
       </c>
@@ -3664,7 +4763,7 @@
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>45703</v>
       </c>
@@ -3693,7 +4792,7 @@
         <v>840.40000000000009</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>45703</v>
       </c>
@@ -3722,7 +4821,7 @@
         <v>379.2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>45703</v>
       </c>
@@ -3751,7 +4850,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>45704</v>
       </c>
@@ -3780,7 +4879,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>45704</v>
       </c>
@@ -3809,7 +4908,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>45704</v>
       </c>
@@ -3838,7 +4937,7 @@
         <v>2347.1999999999998</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>45705</v>
       </c>
@@ -3867,7 +4966,7 @@
         <v>1260.8</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>45705</v>
       </c>
@@ -3896,7 +4995,7 @@
         <v>783.2</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>45705</v>
       </c>
@@ -3925,7 +5024,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>45705</v>
       </c>
@@ -3954,7 +5053,7 @@
         <v>225.6</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>45706</v>
       </c>
@@ -3983,7 +5082,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>45706</v>
       </c>
@@ -4012,7 +5111,7 @@
         <v>395.2</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>45707</v>
       </c>
@@ -4041,7 +5140,7 @@
         <v>188.8</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>45709</v>
       </c>
@@ -4070,7 +5169,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>45709</v>
       </c>
@@ -4099,7 +5198,7 @@
         <v>9872.4</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>45709</v>
       </c>
@@ -4128,7 +5227,7 @@
         <v>27.2</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>45709</v>
       </c>
@@ -4157,7 +5256,7 @@
         <v>36.000000000000007</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>45710</v>
       </c>
@@ -4186,7 +5285,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>45710</v>
       </c>
@@ -4215,7 +5314,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>45710</v>
       </c>
@@ -4244,7 +5343,7 @@
         <v>422.40000000000009</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>45711</v>
       </c>
@@ -4273,7 +5372,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>45711</v>
       </c>
@@ -4302,7 +5401,7 @@
         <v>79.2</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>45711</v>
       </c>
@@ -4331,7 +5430,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>45711</v>
       </c>
@@ -4360,7 +5459,7 @@
         <v>257.60000000000002</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>45712</v>
       </c>
@@ -4389,7 +5488,7 @@
         <v>148.80000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>45712</v>
       </c>
@@ -4418,7 +5517,7 @@
         <v>265.60000000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>45712</v>
       </c>
@@ -4447,7 +5546,7 @@
         <v>8914.8000000000011</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>45713</v>
       </c>
@@ -4476,7 +5575,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>45713</v>
       </c>
@@ -4505,7 +5604,7 @@
         <v>4902.4000000000005</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>45714</v>
       </c>
@@ -4534,7 +5633,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>45715</v>
       </c>
@@ -4563,7 +5662,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>45716</v>
       </c>
@@ -4592,7 +5691,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>45716</v>
       </c>
@@ -4621,7 +5720,7 @@
         <v>1298.8</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>45716</v>
       </c>
@@ -4650,7 +5749,7 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>45716</v>
       </c>
@@ -4679,7 +5778,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>45716</v>
       </c>
@@ -4708,7 +5807,7 @@
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>45717</v>
       </c>
@@ -4737,7 +5836,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>45717</v>
       </c>
@@ -4766,7 +5865,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>45718</v>
       </c>
@@ -4795,7 +5894,7 @@
         <v>6558.8000000000011</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>45719</v>
       </c>
@@ -4824,7 +5923,7 @@
         <v>93.600000000000023</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>45719</v>
       </c>
@@ -4853,7 +5952,7 @@
         <v>7569.6</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>45719</v>
       </c>
@@ -4882,7 +5981,7 @@
         <v>285.60000000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>45720</v>
       </c>
@@ -4911,7 +6010,7 @@
         <v>159.6</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>45720</v>
       </c>
@@ -4940,7 +6039,7 @@
         <v>76.800000000000011</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>45720</v>
       </c>
@@ -4969,7 +6068,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>45720</v>
       </c>
@@ -4998,7 +6097,7 @@
         <v>25.6</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>45720</v>
       </c>
@@ -5027,7 +6126,7 @@
         <v>4884</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>45721</v>
       </c>
@@ -5056,7 +6155,7 @@
         <v>892.80000000000018</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>45722</v>
       </c>
@@ -5085,7 +6184,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>45723</v>
       </c>
@@ -5114,7 +6213,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>45723</v>
       </c>
@@ -5143,7 +6242,7 @@
         <v>3632</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>45723</v>
       </c>
@@ -5172,7 +6271,7 @@
         <v>129.6</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>45723</v>
       </c>
@@ -5201,7 +6300,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>45723</v>
       </c>
@@ -5230,7 +6329,7 @@
         <v>487.2</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>45724</v>
       </c>
@@ -5259,7 +6358,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>45724</v>
       </c>
@@ -5288,7 +6387,7 @@
         <v>431.6</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>45724</v>
       </c>
@@ -5317,7 +6416,7 @@
         <v>225.6</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>45724</v>
       </c>
@@ -5346,7 +6445,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>45724</v>
       </c>
@@ -5375,7 +6474,7 @@
         <v>3175.2000000000012</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>45724</v>
       </c>
@@ -5404,7 +6503,7 @@
         <v>206.4</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>45725</v>
       </c>
@@ -5433,7 +6532,7 @@
         <v>352.80000000000013</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>45725</v>
       </c>
@@ -5462,7 +6561,7 @@
         <v>53.2</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>45725</v>
       </c>
@@ -5491,7 +6590,7 @@
         <v>114.4</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>45725</v>
       </c>
@@ -5520,7 +6619,7 @@
         <v>786.8</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>45726</v>
       </c>
@@ -5549,7 +6648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>45726</v>
       </c>
@@ -5578,7 +6677,7 @@
         <v>426.40000000000009</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>45726</v>
       </c>
@@ -5607,7 +6706,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>45727</v>
       </c>
@@ -5636,7 +6735,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>45727</v>
       </c>
@@ -5665,7 +6764,7 @@
         <v>6130.8000000000011</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>45728</v>
       </c>
@@ -5694,7 +6793,7 @@
         <v>254.8</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>45728</v>
       </c>
@@ -5723,7 +6822,7 @@
         <v>72.8</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>45728</v>
       </c>
@@ -5752,7 +6851,7 @@
         <v>942.00000000000023</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>45729</v>
       </c>
@@ -5781,7 +6880,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>45730</v>
       </c>
@@ -5810,7 +6909,7 @@
         <v>667.2</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>45730</v>
       </c>
@@ -5839,7 +6938,7 @@
         <v>43.2</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>45731</v>
       </c>
@@ -5868,7 +6967,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>45731</v>
       </c>
@@ -5897,7 +6996,7 @@
         <v>3180.8</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>45731</v>
       </c>
@@ -5926,7 +7025,7 @@
         <v>26.400000000000009</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>45731</v>
       </c>
@@ -5955,7 +7054,7 @@
         <v>284.8</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>45731</v>
       </c>
@@ -5984,7 +7083,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>45731</v>
       </c>
@@ -6013,7 +7112,7 @@
         <v>201.6</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>45732</v>
       </c>
@@ -6042,7 +7141,7 @@
         <v>5768</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>45732</v>
       </c>
@@ -6071,7 +7170,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>45732</v>
       </c>
@@ -6100,7 +7199,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>45733</v>
       </c>
@@ -6129,7 +7228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>45733</v>
       </c>
@@ -6158,7 +7257,7 @@
         <v>235.2</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>45733</v>
       </c>
@@ -6187,7 +7286,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>45733</v>
       </c>
@@ -6216,7 +7315,7 @@
         <v>86.800000000000011</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>45735</v>
       </c>
@@ -6245,7 +7344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>45736</v>
       </c>
@@ -6274,7 +7373,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>45736</v>
       </c>
@@ -6303,7 +7402,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>45736</v>
       </c>
@@ -6332,7 +7431,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>45736</v>
       </c>
@@ -6361,7 +7460,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>45736</v>
       </c>
@@ -6390,7 +7489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>45737</v>
       </c>
@@ -6419,7 +7518,7 @@
         <v>134.4</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>45737</v>
       </c>
@@ -6448,7 +7547,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>45737</v>
       </c>
@@ -6477,7 +7576,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>45738</v>
       </c>
@@ -6506,7 +7605,7 @@
         <v>26.400000000000009</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>45738</v>
       </c>
@@ -6535,7 +7634,7 @@
         <v>176.4</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>45738</v>
       </c>
@@ -6564,7 +7663,7 @@
         <v>5168.8000000000011</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>45739</v>
       </c>
@@ -6593,7 +7692,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>45739</v>
       </c>
@@ -6622,7 +7721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>45739</v>
       </c>
@@ -6651,7 +7750,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>45739</v>
       </c>
@@ -6680,7 +7779,7 @@
         <v>134.4</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>45740</v>
       </c>
@@ -6709,7 +7808,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>45740</v>
       </c>
@@ -6738,7 +7837,7 @@
         <v>486.4</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>45740</v>
       </c>
@@ -6767,7 +7866,7 @@
         <v>3366.400000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>45741</v>
       </c>
@@ -6796,7 +7895,7 @@
         <v>32.400000000000013</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>45741</v>
       </c>
@@ -6825,7 +7924,7 @@
         <v>536.79999999999995</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>45741</v>
       </c>
@@ -6854,7 +7953,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>45741</v>
       </c>
@@ -6883,7 +7982,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>45742</v>
       </c>
@@ -6912,7 +8011,7 @@
         <v>303.2</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>45742</v>
       </c>
@@ -6941,7 +8040,7 @@
         <v>1502.4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>45742</v>
       </c>
@@ -6970,7 +8069,7 @@
         <v>124.8</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>45742</v>
       </c>
@@ -6999,7 +8098,7 @@
         <v>2217.6</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>45742</v>
       </c>
@@ -7028,7 +8127,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>45742</v>
       </c>
@@ -7057,7 +8156,7 @@
         <v>1090.8</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>45742</v>
       </c>
@@ -7086,7 +8185,7 @@
         <v>327.60000000000002</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>45744</v>
       </c>
@@ -7115,7 +8214,7 @@
         <v>62.400000000000013</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>45745</v>
       </c>
@@ -7144,7 +8243,7 @@
         <v>4.8000000000000007</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>45745</v>
       </c>
@@ -7173,7 +8272,7 @@
         <v>4140.8</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>45745</v>
       </c>
@@ -7202,7 +8301,7 @@
         <v>69.600000000000009</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>45745</v>
       </c>
@@ -7231,7 +8330,7 @@
         <v>76.800000000000011</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>45746</v>
       </c>
@@ -7260,7 +8359,7 @@
         <v>800.8</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>45746</v>
       </c>
@@ -7289,7 +8388,7 @@
         <v>106.4</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>45746</v>
       </c>
@@ -7318,7 +8417,7 @@
         <v>208.8</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>45746</v>
       </c>
@@ -7347,7 +8446,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>45746</v>
       </c>
@@ -7376,7 +8475,7 @@
         <v>464.80000000000013</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>45746</v>
       </c>
@@ -7405,7 +8504,7 @@
         <v>629.20000000000005</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>45747</v>
       </c>
@@ -7434,7 +8533,7 @@
         <v>669.6</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>45748</v>
       </c>
@@ -7463,7 +8562,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>45748</v>
       </c>
@@ -7492,7 +8591,7 @@
         <v>1632.4</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>45748</v>
       </c>
@@ -7521,7 +8620,7 @@
         <v>148.80000000000001</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>45749</v>
       </c>
@@ -7550,7 +8649,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>45750</v>
       </c>
@@ -7579,7 +8678,7 @@
         <v>4716.8000000000011</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>45750</v>
       </c>
@@ -7608,7 +8707,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>45751</v>
       </c>
@@ -7637,7 +8736,7 @@
         <v>180.4</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>45752</v>
       </c>
@@ -7666,7 +8765,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>45752</v>
       </c>
@@ -7695,7 +8794,7 @@
         <v>787.2</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>45752</v>
       </c>
@@ -7724,7 +8823,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>45753</v>
       </c>
@@ -7753,7 +8852,7 @@
         <v>1094.4000000000001</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>45754</v>
       </c>
@@ -7782,7 +8881,7 @@
         <v>847.2</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>45754</v>
       </c>
@@ -7811,7 +8910,7 @@
         <v>395.19999999999987</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>45755</v>
       </c>
@@ -7840,7 +8939,7 @@
         <v>616.00000000000011</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>45755</v>
       </c>
@@ -7869,7 +8968,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>45755</v>
       </c>
@@ -7898,7 +8997,7 @@
         <v>1117.2</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>45755</v>
       </c>
@@ -7927,7 +9026,7 @@
         <v>316.8</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>45755</v>
       </c>
@@ -7956,7 +9055,7 @@
         <v>591.6</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>45756</v>
       </c>
@@ -7985,7 +9084,7 @@
         <v>722.80000000000018</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>45756</v>
       </c>
@@ -8014,7 +9113,7 @@
         <v>38.400000000000013</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>45758</v>
       </c>
@@ -8043,7 +9142,7 @@
         <v>787.2</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>45759</v>
       </c>
@@ -8072,7 +9171,7 @@
         <v>232.4</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>45759</v>
       </c>
@@ -8101,7 +9200,7 @@
         <v>8416.8000000000011</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>45759</v>
       </c>
@@ -8130,7 +9229,7 @@
         <v>52.400000000000013</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>45759</v>
       </c>
@@ -8159,7 +9258,7 @@
         <v>6242.4000000000005</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>45760</v>
       </c>
@@ -8188,7 +9287,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>45760</v>
       </c>
@@ -8217,7 +9316,7 @@
         <v>91.200000000000017</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>45760</v>
       </c>
@@ -8246,7 +9345,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>45760</v>
       </c>
@@ -8275,7 +9374,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>45761</v>
       </c>
@@ -8304,7 +9403,7 @@
         <v>54.000000000000007</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>45761</v>
       </c>
@@ -8333,7 +9432,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>45761</v>
       </c>
@@ -8362,7 +9461,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>45762</v>
       </c>
@@ -8391,7 +9490,7 @@
         <v>1190.4000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>45762</v>
       </c>
@@ -8420,7 +9519,7 @@
         <v>8044.8000000000011</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>45762</v>
       </c>
@@ -8449,7 +9548,7 @@
         <v>319.60000000000002</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>45762</v>
       </c>
@@ -8478,7 +9577,7 @@
         <v>246.4</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>45763</v>
       </c>
@@ -8507,7 +9606,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>45763</v>
       </c>
@@ -8536,7 +9635,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>45763</v>
       </c>
@@ -8565,7 +9664,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>45764</v>
       </c>
@@ -8594,7 +9693,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>45764</v>
       </c>
@@ -8623,7 +9722,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>45764</v>
       </c>
@@ -8652,7 +9751,7 @@
         <v>370.80000000000013</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>45765</v>
       </c>
@@ -8681,7 +9780,7 @@
         <v>142.4</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>45765</v>
       </c>
@@ -8710,7 +9809,7 @@
         <v>2060.8000000000002</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>45765</v>
       </c>
@@ -8739,7 +9838,7 @@
         <v>3572.8</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>45765</v>
       </c>
@@ -8768,7 +9867,7 @@
         <v>33.599999999999987</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>45766</v>
       </c>
@@ -8797,7 +9896,7 @@
         <v>123.2</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>45766</v>
       </c>
@@ -8826,7 +9925,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>45766</v>
       </c>
@@ -8855,7 +9954,7 @@
         <v>273.60000000000002</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>45766</v>
       </c>
@@ -8884,7 +9983,7 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>45766</v>
       </c>
@@ -8913,7 +10012,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>45767</v>
       </c>
@@ -8942,7 +10041,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>45767</v>
       </c>
@@ -8971,7 +10070,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>45768</v>
       </c>
@@ -9000,7 +10099,7 @@
         <v>453.6</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>45768</v>
       </c>
@@ -9029,7 +10128,7 @@
         <v>52.800000000000011</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>45768</v>
       </c>
@@ -9058,7 +10157,7 @@
         <v>10959.2</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>45769</v>
       </c>
@@ -9087,7 +10186,7 @@
         <v>122.4</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>45770</v>
       </c>
@@ -9116,7 +10215,7 @@
         <v>272.80000000000013</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>45770</v>
       </c>
@@ -9145,7 +10244,7 @@
         <v>90.4</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>45770</v>
       </c>
@@ -9174,7 +10273,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>45770</v>
       </c>
@@ -9203,7 +10302,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>45770</v>
       </c>
@@ -9232,7 +10331,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>45770</v>
       </c>
@@ -9261,7 +10360,7 @@
         <v>1196.8</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>45770</v>
       </c>
@@ -9290,7 +10389,7 @@
         <v>345.6</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>45771</v>
       </c>
@@ -9319,7 +10418,7 @@
         <v>2355.6</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>45772</v>
       </c>
@@ -9348,7 +10447,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>45772</v>
       </c>
@@ -9377,7 +10476,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>45772</v>
       </c>
@@ -9406,7 +10505,7 @@
         <v>310.39999999999998</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>45773</v>
       </c>
@@ -9435,7 +10534,7 @@
         <v>259.2</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>45773</v>
       </c>
@@ -9464,7 +10563,7 @@
         <v>165.6</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>45773</v>
       </c>
@@ -9493,7 +10592,7 @@
         <v>115.2</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>45774</v>
       </c>
@@ -9522,7 +10621,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>45774</v>
       </c>
@@ -9551,7 +10650,7 @@
         <v>854.40000000000009</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>45774</v>
       </c>
@@ -9580,7 +10679,7 @@
         <v>360.80000000000013</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>45775</v>
       </c>
@@ -9609,7 +10708,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>45775</v>
       </c>
@@ -9638,7 +10737,7 @@
         <v>141.6</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>45775</v>
       </c>
@@ -9667,7 +10766,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>45776</v>
       </c>
@@ -9696,7 +10795,7 @@
         <v>435.2</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>45776</v>
       </c>
@@ -9725,7 +10824,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>45776</v>
       </c>
@@ -9754,7 +10853,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>45777</v>
       </c>
@@ -9783,7 +10882,7 @@
         <v>80.800000000000011</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>45778</v>
       </c>
@@ -9812,7 +10911,7 @@
         <v>438.4</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>45779</v>
       </c>
@@ -9841,7 +10940,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>45779</v>
       </c>
@@ -9870,7 +10969,7 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>45779</v>
       </c>
@@ -9899,7 +10998,7 @@
         <v>331.2</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>45779</v>
       </c>
@@ -9928,7 +11027,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>45780</v>
       </c>
@@ -9957,7 +11056,7 @@
         <v>162.4</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>45781</v>
       </c>
@@ -9986,7 +11085,7 @@
         <v>467.2</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>45783</v>
       </c>
@@ -10015,7 +11114,7 @@
         <v>212.8</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>45783</v>
       </c>
@@ -10044,7 +11143,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>45783</v>
       </c>
@@ -10073,7 +11172,7 @@
         <v>34.799999999999997</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>45783</v>
       </c>
@@ -10102,7 +11201,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>45784</v>
       </c>
@@ -10131,7 +11230,7 @@
         <v>189.2</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>45784</v>
       </c>
@@ -10160,7 +11259,7 @@
         <v>83.2</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>45784</v>
       </c>
@@ -10189,7 +11288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>45785</v>
       </c>
@@ -10218,7 +11317,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>45785</v>
       </c>
@@ -10247,7 +11346,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>45785</v>
       </c>
@@ -10276,7 +11375,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>45785</v>
       </c>
@@ -10305,7 +11404,7 @@
         <v>313.60000000000002</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>45786</v>
       </c>
@@ -10334,7 +11433,7 @@
         <v>3273.6</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>45786</v>
       </c>
@@ -10363,7 +11462,7 @@
         <v>283.2</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>45787</v>
       </c>
@@ -10392,7 +11491,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>45787</v>
       </c>
@@ -10421,7 +11520,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>45788</v>
       </c>
@@ -10450,7 +11549,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>45788</v>
       </c>
@@ -10479,7 +11578,7 @@
         <v>275.2</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>45788</v>
       </c>
@@ -10508,7 +11607,7 @@
         <v>61.600000000000009</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>45788</v>
       </c>
@@ -10537,7 +11636,7 @@
         <v>9125.6</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>45789</v>
       </c>
@@ -10566,7 +11665,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>45790</v>
       </c>
@@ -10595,7 +11694,7 @@
         <v>76.800000000000011</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>45790</v>
       </c>
@@ -10624,7 +11723,7 @@
         <v>424.80000000000013</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>45791</v>
       </c>
@@ -10653,7 +11752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>45792</v>
       </c>
@@ -10682,7 +11781,7 @@
         <v>8920.8000000000011</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>45792</v>
       </c>
@@ -10711,7 +11810,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>45792</v>
       </c>
@@ -10740,7 +11839,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>45793</v>
       </c>
@@ -10769,7 +11868,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>45794</v>
       </c>
@@ -10798,7 +11897,7 @@
         <v>360.80000000000013</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>45794</v>
       </c>
@@ -10827,7 +11926,7 @@
         <v>182.4</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>45794</v>
       </c>
@@ -10856,7 +11955,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>45794</v>
       </c>
@@ -10885,7 +11984,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>45795</v>
       </c>
@@ -10914,7 +12013,7 @@
         <v>435.2</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>45795</v>
       </c>
@@ -10943,7 +12042,7 @@
         <v>492.80000000000013</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>45795</v>
       </c>
@@ -10972,7 +12071,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>45795</v>
       </c>
@@ -11001,7 +12100,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>45795</v>
       </c>
@@ -11030,7 +12129,7 @@
         <v>121.6</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>45795</v>
       </c>
@@ -11059,7 +12158,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>45796</v>
       </c>
@@ -11088,7 +12187,7 @@
         <v>1176.4000000000001</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>45796</v>
       </c>
@@ -11117,7 +12216,7 @@
         <v>1051.2</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>45796</v>
       </c>
@@ -11146,7 +12245,7 @@
         <v>134.4</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>45797</v>
       </c>
@@ -11175,7 +12274,7 @@
         <v>1346.4</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>45797</v>
       </c>
@@ -11204,7 +12303,7 @@
         <v>72.000000000000014</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>45797</v>
       </c>
@@ -11233,7 +12332,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>45798</v>
       </c>
@@ -11262,7 +12361,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>45798</v>
       </c>
@@ -11291,7 +12390,7 @@
         <v>756.8</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>45798</v>
       </c>
@@ -11320,7 +12419,7 @@
         <v>63.2</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>45798</v>
       </c>
@@ -11349,7 +12448,7 @@
         <v>88.800000000000011</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>45799</v>
       </c>
@@ -11378,7 +12477,7 @@
         <v>367.2</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>45799</v>
       </c>
@@ -11407,7 +12506,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>45799</v>
       </c>
@@ -11436,7 +12535,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>45799</v>
       </c>
@@ -11465,7 +12564,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>45799</v>
       </c>
@@ -11494,7 +12593,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>45800</v>
       </c>
@@ -11523,7 +12622,7 @@
         <v>3223.2000000000012</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>45800</v>
       </c>
@@ -11552,7 +12651,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>45800</v>
       </c>
@@ -11581,7 +12680,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>45800</v>
       </c>
@@ -11610,7 +12709,7 @@
         <v>312.8</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>45800</v>
       </c>
@@ -11639,7 +12738,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>45801</v>
       </c>
@@ -11668,7 +12767,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>45801</v>
       </c>
@@ -11697,7 +12796,7 @@
         <v>169.2</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>45801</v>
       </c>
@@ -11726,7 +12825,7 @@
         <v>73.600000000000009</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>45801</v>
       </c>
@@ -11755,7 +12854,7 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>45802</v>
       </c>
@@ -11784,7 +12883,7 @@
         <v>110.4</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>45802</v>
       </c>
@@ -11813,7 +12912,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>45802</v>
       </c>
@@ -11842,7 +12941,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>45802</v>
       </c>
@@ -11871,7 +12970,7 @@
         <v>281.60000000000002</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>45802</v>
       </c>
@@ -11900,7 +12999,7 @@
         <v>31.2</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>45803</v>
       </c>
@@ -11929,7 +13028,7 @@
         <v>151.19999999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>45804</v>
       </c>
@@ -11958,7 +13057,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>45804</v>
       </c>
@@ -11987,7 +13086,7 @@
         <v>424.80000000000013</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>45805</v>
       </c>
@@ -12016,7 +13115,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>45805</v>
       </c>
@@ -12045,7 +13144,7 @@
         <v>5262.4000000000005</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>45806</v>
       </c>
@@ -12074,7 +13173,7 @@
         <v>367.2</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>45806</v>
       </c>
@@ -12103,7 +13202,7 @@
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>45807</v>
       </c>
@@ -12132,7 +13231,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>45807</v>
       </c>
@@ -12161,7 +13260,7 @@
         <v>36.799999999999997</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>45807</v>
       </c>
@@ -12190,7 +13289,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>45807</v>
       </c>
@@ -12219,7 +13318,7 @@
         <v>8010.4</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>45807</v>
       </c>
@@ -12248,7 +13347,7 @@
         <v>551.6</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>45808</v>
       </c>
@@ -12277,7 +13376,7 @@
         <v>190.8</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>45808</v>
       </c>
@@ -12306,7 +13405,7 @@
         <v>338.4</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>45808</v>
       </c>
@@ -12335,7 +13434,7 @@
         <v>488.80000000000013</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>45808</v>
       </c>
@@ -12364,7 +13463,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>45808</v>
       </c>
@@ -12393,7 +13492,7 @@
         <v>4778.8</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>45809</v>
       </c>
@@ -12422,7 +13521,7 @@
         <v>5577.6</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>45810</v>
       </c>
@@ -12451,7 +13550,7 @@
         <v>1174.4000000000001</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>45810</v>
       </c>
@@ -12480,7 +13579,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>45810</v>
       </c>
@@ -12509,7 +13608,7 @@
         <v>774.40000000000009</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>45811</v>
       </c>
@@ -12538,7 +13637,7 @@
         <v>249.6</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>45811</v>
       </c>
@@ -12567,7 +13666,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>45813</v>
       </c>
@@ -12596,7 +13695,7 @@
         <v>190.8</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>45813</v>
       </c>
@@ -12625,7 +13724,7 @@
         <v>955.2</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>45813</v>
       </c>
@@ -12654,7 +13753,7 @@
         <v>57.600000000000009</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>45813</v>
       </c>
@@ -12683,7 +13782,7 @@
         <v>616.00000000000011</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>45813</v>
       </c>
@@ -12712,7 +13811,7 @@
         <v>428.40000000000009</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>45815</v>
       </c>
@@ -12741,7 +13840,7 @@
         <v>722.40000000000009</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>45815</v>
       </c>
@@ -12770,7 +13869,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>45815</v>
       </c>
@@ -12799,7 +13898,7 @@
         <v>156.80000000000001</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>45816</v>
       </c>
@@ -12828,7 +13927,7 @@
         <v>225.6</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>45817</v>
       </c>
@@ -12857,7 +13956,7 @@
         <v>144.4</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>45817</v>
       </c>
@@ -12886,7 +13985,7 @@
         <v>1132.8</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>45818</v>
       </c>
@@ -12915,7 +14014,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>45818</v>
       </c>
@@ -12944,7 +14043,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>45818</v>
       </c>
@@ -12973,7 +14072,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>45819</v>
       </c>
@@ -13002,7 +14101,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>45819</v>
       </c>
@@ -13031,7 +14130,7 @@
         <v>2660</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>45819</v>
       </c>
@@ -13060,7 +14159,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>45819</v>
       </c>
@@ -13089,7 +14188,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>45820</v>
       </c>
@@ -13118,7 +14217,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>45820</v>
       </c>
@@ -13147,7 +14246,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>45821</v>
       </c>
@@ -13176,7 +14275,7 @@
         <v>153.6</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>45822</v>
       </c>
@@ -13205,7 +14304,7 @@
         <v>1883.2</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>45822</v>
       </c>
@@ -13234,7 +14333,7 @@
         <v>240.8</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>45822</v>
       </c>
@@ -13263,7 +14362,7 @@
         <v>64.800000000000011</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>45822</v>
       </c>
@@ -13292,7 +14391,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>45822</v>
       </c>
@@ -13321,7 +14420,7 @@
         <v>74.400000000000006</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>45823</v>
       </c>
@@ -13350,7 +14449,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>45823</v>
       </c>
@@ -13379,7 +14478,7 @@
         <v>302.39999999999998</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>45823</v>
       </c>
@@ -13408,7 +14507,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>45823</v>
       </c>
@@ -13437,7 +14536,7 @@
         <v>7171.1999999999989</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>45823</v>
       </c>
@@ -13466,7 +14565,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>45823</v>
       </c>
@@ -13495,7 +14594,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>45824</v>
       </c>
@@ -13524,7 +14623,7 @@
         <v>4614</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>45824</v>
       </c>
@@ -13553,7 +14652,7 @@
         <v>565.19999999999993</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>45824</v>
       </c>
@@ -13582,7 +14681,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>45824</v>
       </c>
@@ -13611,7 +14710,7 @@
         <v>3838.8</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>45825</v>
       </c>
@@ -13640,7 +14739,7 @@
         <v>164.4</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>45825</v>
       </c>
@@ -13669,7 +14768,7 @@
         <v>755.2</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>45825</v>
       </c>
@@ -13698,7 +14797,7 @@
         <v>5344.8</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>45825</v>
       </c>
@@ -13727,7 +14826,7 @@
         <v>98.4</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>45825</v>
       </c>
@@ -13756,7 +14855,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>45826</v>
       </c>
@@ -13785,7 +14884,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>45826</v>
       </c>
@@ -13814,7 +14913,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>45826</v>
       </c>
@@ -13843,7 +14942,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>45826</v>
       </c>
@@ -13872,7 +14971,7 @@
         <v>421.6</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>45826</v>
       </c>
@@ -13901,7 +15000,7 @@
         <v>499.2</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>45826</v>
       </c>
@@ -13930,7 +15029,7 @@
         <v>8251.1999999999989</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>45826</v>
       </c>
@@ -13959,7 +15058,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>45826</v>
       </c>
@@ -13988,7 +15087,7 @@
         <v>115.6</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>45827</v>
       </c>
@@ -14017,7 +15116,7 @@
         <v>127.6</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>45827</v>
       </c>
@@ -14046,7 +15145,7 @@
         <v>92.800000000000011</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>45827</v>
       </c>
@@ -14075,7 +15174,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>45827</v>
       </c>
@@ -14104,7 +15203,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>45829</v>
       </c>
@@ -14133,7 +15232,7 @@
         <v>109.2</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>45829</v>
       </c>
@@ -14162,7 +15261,7 @@
         <v>170.4</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>45829</v>
       </c>
@@ -14191,7 +15290,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>45829</v>
       </c>
@@ -14220,7 +15319,7 @@
         <v>196.8</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>45830</v>
       </c>
@@ -14249,7 +15348,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>45830</v>
       </c>
@@ -14278,7 +15377,7 @@
         <v>568.80000000000007</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>45830</v>
       </c>
@@ -14307,7 +15406,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>45831</v>
       </c>
@@ -14336,7 +15435,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>45831</v>
       </c>
@@ -14365,7 +15464,7 @@
         <v>1677.6</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>45831</v>
       </c>
@@ -14394,7 +15493,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>45831</v>
       </c>
@@ -14423,7 +15522,7 @@
         <v>115.2</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>45831</v>
       </c>
@@ -14452,7 +15551,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>45832</v>
       </c>
@@ -14481,7 +15580,7 @@
         <v>51.600000000000009</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>45832</v>
       </c>
@@ -14510,7 +15609,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>45832</v>
       </c>
@@ -14539,7 +15638,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>45832</v>
       </c>
@@ -14568,7 +15667,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>45833</v>
       </c>
@@ -14597,7 +15696,7 @@
         <v>5852</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>45833</v>
       </c>
@@ -14626,7 +15725,7 @@
         <v>76.800000000000011</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>45833</v>
       </c>
@@ -14655,7 +15754,7 @@
         <v>145.6</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>45834</v>
       </c>
@@ -14684,7 +15783,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>45834</v>
       </c>
@@ -14713,7 +15812,7 @@
         <v>281.60000000000002</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>45834</v>
       </c>
@@ -14742,7 +15841,7 @@
         <v>89.6</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>45834</v>
       </c>
@@ -14771,7 +15870,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>45834</v>
       </c>
@@ -14800,7 +15899,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>45835</v>
       </c>
@@ -14829,7 +15928,7 @@
         <v>5428.7999999999993</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>45835</v>
       </c>
@@ -14858,7 +15957,7 @@
         <v>4027.2000000000012</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>45836</v>
       </c>
@@ -14887,7 +15986,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>45836</v>
       </c>
@@ -14916,7 +16015,7 @@
         <v>165.6</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>45837</v>
       </c>
@@ -14945,7 +16044,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>45837</v>
       </c>
@@ -14974,7 +16073,7 @@
         <v>5462.4000000000005</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>45837</v>
       </c>
@@ -15003,7 +16102,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>45837</v>
       </c>
@@ -15032,7 +16131,7 @@
         <v>58.8</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>45837</v>
       </c>
@@ -15061,7 +16160,7 @@
         <v>98.799999999999983</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>45837</v>
       </c>
@@ -15091,6 +16190,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -15099,11 +16199,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -15117,7 +16225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -15131,7 +16239,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
@@ -15145,7 +16253,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -15159,7 +16267,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
@@ -15173,7 +16281,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -15188,7 +16296,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15196,11 +16306,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -15214,7 +16326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -15228,7 +16340,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -15242,7 +16354,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -15256,7 +16368,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -15270,7 +16382,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -15285,7 +16397,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15293,11 +16407,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -15311,7 +16430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45658</v>
       </c>
@@ -15325,7 +16444,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45689</v>
       </c>
@@ -15339,7 +16458,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45717</v>
       </c>
@@ -15353,7 +16472,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45748</v>
       </c>
@@ -15367,7 +16486,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45778</v>
       </c>
@@ -15381,7 +16500,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>45809</v>
       </c>
@@ -15396,6 +16515,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>